--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,75 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -741,20 +749,26 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,20 +784,26 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,19 +838,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,19 +990,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -959,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -967,20 +1021,26 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1056,14 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,19 +1075,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1038,20 +1106,26 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,19 +1141,25 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1096,19 +1176,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1117,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1125,19 +1211,25 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,19 +1281,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1204,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1212,19 +1316,25 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1233,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1241,8 +1351,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,19 +1491,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1386,19 +1526,25 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1407,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1415,8 +1561,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,19 +1596,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -1465,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -1473,42 +1631,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1705,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1556,14 +1730,20 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,19 +1771,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1620,20 +1806,26 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1649,49 +1841,61 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1701,14 +1905,20 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,20 +1946,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +2086,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2156,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -1933,14 +2185,20 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,13 +2225,15 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1988,55 +2250,67 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2049,40 +2323,52 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-200</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,53 +2936,65 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -2613,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -2621,8 +3011,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,19 +3030,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,20 +3391,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3133,53 +3631,65 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,11 +736,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,14 +771,14 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,14 +809,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,13 +863,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,23 +1028,23 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1027,8 +1054,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,14 +1066,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,14 +1158,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,8 +1201,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,23 +1234,23 @@
         <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1217,22 +1260,25 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1296,23 +1348,23 @@
         <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1374,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,23 +1386,23 @@
         <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,13 +1576,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1532,8 +1602,11 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,23 +1614,23 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,23 +1690,23 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1793,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1736,14 +1823,17 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,22 +1867,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1812,23 +1905,26 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1859,46 +1958,49 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -1911,14 +2013,17 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,23 +2057,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2106,8 +2226,8 @@
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2285,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2191,14 +2317,17 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,7 +2367,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2256,14 +2387,17 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2286,34 +2420,37 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2329,28 +2466,31 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2359,16 +2499,19 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,13 +2545,16 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2416,8 +2562,8 @@
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2697,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -2569,16 +2727,19 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,28 +2903,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-300</v>
       </c>
       <c r="H72" s="3">
         <v>-300</v>
       </c>
       <c r="I72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
@@ -2761,14 +2935,17 @@
       <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="L72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2991,23 +3186,23 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3046,8 +3245,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-1100</v>
       </c>
       <c r="F89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,31 +3512,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,14 +3636,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,23 +3830,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3611,19 +3857,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3631,11 +3880,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3648,8 +3897,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3657,23 +3906,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3683,13 +3935,16 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,20 +740,20 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,20 +784,20 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,16 +831,16 @@
         <v>-200</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,29 +879,31 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,28 +1070,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1049,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1057,8 +1110,14 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,20 +1125,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,8 +1154,14 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,20 +1231,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,11 +1283,11 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1225,28 +1304,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1255,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1263,28 +1348,34 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,28 +1436,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1369,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1377,28 +1480,34 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1407,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1415,8 +1524,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1605,28 +1744,34 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1635,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -1643,8 +1788,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,28 +1832,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1711,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -1719,51 +1876,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,29 +1965,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1826,14 +1999,20 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,29 +2049,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1908,29 +2093,35 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1946,13 +2137,19 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -1961,52 +2158,58 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2016,37 +2219,43 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2060,29 +2269,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,16 +2445,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2229,11 +2468,11 @@
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,29 +2533,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2320,14 +2571,20 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,23 +2617,25 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2390,52 +2651,64 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,20 +2716,20 @@
         <v>1800</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2469,49 +2742,61 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,28 +2833,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,71 +3511,83 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3207,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -3215,8 +3604,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,11 +3645,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,19 +3952,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3539,11 +3980,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,29 +4080,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3883,14 +4380,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3900,51 +4397,63 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,26 +748,26 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,26 +798,26 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>-200</v>
@@ -837,16 +857,16 @@
         <v>-200</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-200</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,35 +907,37 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,34 +1124,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1108,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1116,8 +1170,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,26 +1185,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1220,14 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1196,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1222,8 +1290,14 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,26 +1305,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1289,11 +1369,11 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1310,34 +1390,40 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1346,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1354,34 +1440,40 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,34 +1540,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1478,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1486,34 +1590,40 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1522,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1530,8 +1640,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1724,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1750,34 +1890,40 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1786,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1794,8 +1940,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,34 +1990,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1874,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -1882,57 +2040,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2139,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2005,14 +2179,20 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2235,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2099,35 +2285,41 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,10 +2350,10 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -2164,58 +2362,64 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F46" s="3">
         <v>24100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2225,29 +2429,35 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2257,11 +2467,11 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,35 +2485,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,10 +2703,10 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2474,11 +2714,11 @@
       <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2785,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F54" s="3">
         <v>26400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2577,14 +2829,20 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,29 +2879,31 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2657,85 +2919,97 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2748,55 +3022,67 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,34 +3125,40 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-200</v>
       </c>
       <c r="P72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F76" s="3">
         <v>22300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,83 +3895,95 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3602,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3610,8 +4000,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3651,11 +4049,11 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4394,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3986,11 +4428,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,35 +4540,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F100" s="3">
         <v>10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4386,14 +4884,14 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4403,57 +4901,69 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F102" s="3">
         <v>9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,103 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -766,11 +769,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -789,38 +792,41 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,19 +845,22 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-200</v>
       </c>
       <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-200</v>
       </c>
       <c r="G10" s="3">
         <v>-200</v>
@@ -863,14 +872,14 @@
         <v>-200</v>
       </c>
       <c r="J10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,37 +921,38 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>300</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1151,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1600</v>
       </c>
       <c r="G17" s="3">
         <v>1600</v>
       </c>
       <c r="H17" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1176,38 +1202,41 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-2800</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1000</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1270,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1296,38 +1329,41 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1000</v>
       </c>
       <c r="I21" s="3">
         <v>-1000</v>
       </c>
       <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1375,8 +1414,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1396,47 +1435,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-1000</v>
       </c>
       <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1446,37 +1488,40 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1594,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
       </c>
       <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1596,47 +1647,50 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1870,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1896,47 +1965,50 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2071,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>19700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2185,37 +2271,40 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,28 +2342,28 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2291,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2341,22 +2436,25 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2368,61 +2466,64 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E46" s="3">
         <v>20400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2435,32 +2536,35 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2473,8 +2577,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2491,38 +2595,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +2828,7 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2720,8 +2839,8 @@
       <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>300</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E54" s="3">
         <v>23600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2835,14 +2960,17 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,31 +3010,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2925,14 +3055,17 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2945,8 +3078,8 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2955,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -2970,49 +3103,52 @@
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3028,43 +3164,46 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3073,16 +3212,19 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,28 +3273,31 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
         <v>1900</v>
       </c>
       <c r="F62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3160,8 +3305,8 @@
       <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,40 +3485,43 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3373,16 +3530,19 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,43 +3771,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-300</v>
       </c>
       <c r="M72" s="3">
         <v>-300</v>
       </c>
       <c r="N72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O72" s="3">
         <v>-200</v>
@@ -3645,14 +3818,17 @@
       <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="Q72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E76" s="3">
         <v>20600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,102 +4089,108 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4055,8 +4253,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1100</v>
       </c>
       <c r="J89" s="3">
         <v>-1100</v>
       </c>
       <c r="K89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,28 +4615,29 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4434,8 +4654,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,22 +4772,25 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4570,14 +4799,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5058,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4855,24 +5100,27 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4890,11 +5138,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4907,8 +5155,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4916,38 +5164,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4957,13 +5208,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,129 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
@@ -795,44 +803,50 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>600</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,16 +877,16 @@
         <v>-200</v>
       </c>
       <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>-200</v>
       </c>
       <c r="H10" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
@@ -875,16 +895,16 @@
         <v>-200</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-200</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,44 +948,46 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,34 +1215,34 @@
         <v>2900</v>
       </c>
       <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1197,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1205,44 +1259,50 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,8 +1318,14 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,20 +1345,22 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1306,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,35 +1415,35 @@
         <v>-2700</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1459,14 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,11 +1497,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,43 +1518,49 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1483,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1491,43 +1577,49 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,43 +1695,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1642,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -1650,43 +1754,49 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1695,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1703,8 +1813,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,20 +2049,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1942,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -1968,43 +2108,49 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2013,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2021,8 +2167,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,43 +2226,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2119,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2127,66 +2285,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2399,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2274,25 +2448,31 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E42" s="3">
         <v>11000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>11000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2306,11 +2486,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2333,44 +2513,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,44 +2572,50 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,19 +2646,19 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2469,67 +2667,73 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F46" s="3">
         <v>20200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>24100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2539,38 +2743,44 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2580,11 +2790,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2598,44 +2808,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +3044,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2831,10 +3071,10 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2842,11 +3082,11 @@
       <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>300</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3162,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F54" s="3">
         <v>23500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>23600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>25500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2963,14 +3215,20 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3271,40 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3058,28 +3320,34 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3091,70 +3359,76 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>1800</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3167,64 +3441,76 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,43 +3562,49 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
+      <c r="R72" s="3">
+        <v>-200</v>
       </c>
       <c r="S72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F76" s="3">
         <v>19600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>22500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>22300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,101 +4470,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4195,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -4203,8 +4593,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,10 +4631,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4256,11 +4654,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,34 +5056,36 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4657,11 +5099,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,44 +5229,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,73 +5547,85 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>11300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>10300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>5100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5141,14 +5639,14 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5158,66 +5656,78 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -786,11 +790,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,47 +813,50 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,28 +875,31 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-200</v>
       </c>
       <c r="G10" s="3">
         <v>-200</v>
       </c>
       <c r="H10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-200</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
@@ -901,14 +911,14 @@
         <v>-200</v>
       </c>
       <c r="M10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,34 +976,34 @@
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>300</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,56 +1232,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1600</v>
       </c>
       <c r="J17" s="3">
         <v>1600</v>
       </c>
       <c r="K17" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
       </c>
       <c r="M17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1265,47 +1292,50 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2800</v>
       </c>
       <c r="F18" s="3">
         <v>-2800</v>
       </c>
       <c r="G18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1000</v>
       </c>
       <c r="L18" s="3">
         <v>-1000</v>
       </c>
       <c r="M18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,23 +1380,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1380,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1406,13 +1440,16 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2700</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
         <v>-2700</v>
@@ -1421,32 +1458,32 @@
         <v>-2700</v>
       </c>
       <c r="G21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1000</v>
       </c>
       <c r="L21" s="3">
         <v>-1000</v>
       </c>
       <c r="M21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1503,8 +1543,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1524,56 +1564,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
         <v>-2800</v>
       </c>
       <c r="F23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1000</v>
       </c>
       <c r="L23" s="3">
         <v>-1000</v>
       </c>
       <c r="M23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1626,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,35 +1640,35 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,56 +1750,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2800</v>
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
         <v>-2800</v>
       </c>
       <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1000</v>
       </c>
       <c r="L26" s="3">
         <v>-1000</v>
       </c>
       <c r="M26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1760,56 +1812,59 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-2200</v>
       </c>
       <c r="E27" s="3">
         <v>-2800</v>
       </c>
       <c r="F27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-1000</v>
       </c>
       <c r="M27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,23 +2122,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2088,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -2114,56 +2184,59 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-2200</v>
       </c>
       <c r="E33" s="3">
         <v>-2800</v>
       </c>
       <c r="F33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-1000</v>
       </c>
       <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,56 +2308,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-2200</v>
       </c>
       <c r="E35" s="3">
         <v>-2800</v>
       </c>
       <c r="F35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-1000</v>
       </c>
       <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,47 +2487,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2454,28 +2541,31 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E42" s="3">
         <v>9500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>11000</v>
       </c>
       <c r="F42" s="3">
         <v>11000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>11000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2492,8 +2582,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2519,17 +2609,20 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2537,28 +2630,28 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2578,47 +2671,50 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2637,13 +2733,16 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -2652,16 +2751,16 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2673,70 +2772,73 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E46" s="3">
         <v>18000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2749,14 +2851,17 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,26 +2869,26 @@
         <v>1600</v>
       </c>
       <c r="E47" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F47" s="3">
         <v>1700</v>
       </c>
       <c r="G47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H47" s="3">
         <v>1600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2796,8 +2901,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2814,47 +2919,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
       </c>
       <c r="F48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,7 +3179,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3077,7 +3197,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -3088,8 +3208,8 @@
       <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>300</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3291,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3221,14 +3347,17 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,40 +3403,41 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3326,14 +3457,17 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3365,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3380,58 +3514,61 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
       </c>
       <c r="M59" s="3">
         <v>1200</v>
       </c>
       <c r="N59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3447,52 +3584,55 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3501,16 +3641,19 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,37 +3711,40 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1900</v>
       </c>
       <c r="H62" s="3">
         <v>1900</v>
       </c>
       <c r="I62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -3606,8 +3752,8 @@
       <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>300</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,49 +3959,52 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="E66" s="3">
         <v>5600</v>
       </c>
       <c r="F66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3855,16 +4013,19 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,52 +4293,55 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-300</v>
       </c>
       <c r="P72" s="3">
         <v>-300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
@@ -4175,14 +4349,17 @@
       <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="T72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,120 +4665,126 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-2200</v>
       </c>
       <c r="E81" s="3">
         <v>-2800</v>
       </c>
       <c r="F81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-1000</v>
       </c>
       <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4637,7 +4836,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4660,8 +4859,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1100</v>
       </c>
       <c r="M89" s="3">
         <v>-1100</v>
       </c>
       <c r="N89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,25 +5291,25 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,31 +5462,34 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5268,14 +5498,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5565,35 +5811,35 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5601,34 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5645,11 +5894,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5662,8 +5911,8 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5671,47 +5920,50 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5721,13 +5973,16 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,149 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
@@ -816,53 +823,59 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>600</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,16 +915,16 @@
         <v>-200</v>
       </c>
       <c r="H10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
       </c>
       <c r="K10" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>-200</v>
@@ -914,16 +933,16 @@
         <v>-200</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-200</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -940,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,53 +989,55 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
       </c>
       <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,52 +1284,54 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2800</v>
       </c>
       <c r="G17" s="3">
         <v>2900</v>
       </c>
       <c r="H17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1287,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -1295,53 +1348,59 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1357,8 +1416,14 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,20 +1457,20 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1417,16 +1484,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
@@ -1443,53 +1510,59 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2700</v>
       </c>
       <c r="G21" s="3">
         <v>-2700</v>
       </c>
       <c r="H21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,31 +1578,37 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1546,11 +1625,11 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1567,52 +1646,58 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1621,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1629,52 +1714,58 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,52 +1850,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1807,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -1815,52 +1918,58 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1869,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -1877,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,20 +2273,20 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2161,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
@@ -2187,52 +2326,58 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2241,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2249,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,52 +2462,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2365,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2373,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,53 +2659,55 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>21800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2544,35 +2717,41 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F42" s="3">
         <v>12600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>9500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>11000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>11000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2585,11 +2764,11 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2612,13 +2791,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2627,38 +2812,38 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,8 +2859,14 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2686,41 +2877,41 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2736,37 +2927,43 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>400</v>
-      </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2775,76 +2972,82 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F46" s="3">
         <v>16100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>20200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>20400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>22800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2854,47 +3057,53 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2904,11 +3113,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2922,53 +3131,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2984,8 +3199,14 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3182,10 +3421,10 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -3200,10 +3439,10 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3211,11 +3450,11 @@
       <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>300</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3539,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F54" s="3">
         <v>19000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>23200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>23500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>23600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3350,14 +3601,20 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
+      <c r="U54" s="3">
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3416,35 +3677,35 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3460,14 +3721,20 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3502,79 +3769,85 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E59" s="3">
         <v>2300</v>
       </c>
       <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>1800</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3587,11 +3860,17 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3599,61 +3878,67 @@
         <v>2600</v>
       </c>
       <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,52 +3999,58 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-200</v>
       </c>
       <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
+      <c r="U72" s="3">
+        <v>-200</v>
       </c>
       <c r="V72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F76" s="3">
         <v>13700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>22500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>22300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,119 +5045,131 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4789,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -4797,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,13 +5216,15 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4839,10 +5236,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4862,11 +5259,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5294,28 +5735,28 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5329,11 +5770,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,53 +5918,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-11100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,13 +6284,19 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5814,55 +6305,61 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>11300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,20 +6367,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5897,14 +6394,14 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5914,75 +6411,87 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -806,11 +810,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,56 +833,59 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,37 +904,40 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-200</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
       </c>
       <c r="K10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-200</v>
       </c>
       <c r="M10" s="3">
         <v>-200</v>
@@ -939,14 +949,14 @@
         <v>-200</v>
       </c>
       <c r="P10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,10 +1014,10 @@
         <v>1400</v>
       </c>
       <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -1012,34 +1026,34 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3">
+        <v>300</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,65 +1312,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1600</v>
       </c>
       <c r="M17" s="3">
         <v>1600</v>
       </c>
       <c r="N17" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="O17" s="3">
         <v>1000</v>
       </c>
       <c r="P17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1354,56 +1381,59 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2800</v>
       </c>
       <c r="I18" s="3">
         <v>-2800</v>
       </c>
       <c r="J18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1000</v>
       </c>
       <c r="O18" s="3">
         <v>-1000</v>
       </c>
       <c r="P18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1481,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1463,17 +1497,17 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1490,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1516,22 +1550,25 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2700</v>
       </c>
       <c r="H21" s="3">
         <v>-2700</v>
@@ -1540,32 +1577,32 @@
         <v>-2700</v>
       </c>
       <c r="J21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1000</v>
       </c>
       <c r="O21" s="3">
         <v>-1000</v>
       </c>
       <c r="P21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,8 +1650,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1631,8 +1671,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1652,65 +1692,68 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2800</v>
       </c>
       <c r="H23" s="3">
         <v>-2800</v>
       </c>
       <c r="I23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1000</v>
       </c>
       <c r="O23" s="3">
         <v>-1000</v>
       </c>
       <c r="P23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1720,19 +1763,22 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1740,35 +1786,35 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,65 +1905,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2800</v>
       </c>
       <c r="H26" s="3">
         <v>-2800</v>
       </c>
       <c r="I26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1000</v>
       </c>
       <c r="O26" s="3">
         <v>-1000</v>
       </c>
       <c r="P26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -1924,65 +1976,68 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2800</v>
       </c>
       <c r="H27" s="3">
         <v>-2800</v>
       </c>
       <c r="I27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1000</v>
       </c>
       <c r="O27" s="3">
         <v>-1000</v>
       </c>
       <c r="P27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2331,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2279,17 +2349,17 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2306,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2332,65 +2402,68 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2800</v>
       </c>
       <c r="H33" s="3">
         <v>-2800</v>
       </c>
       <c r="I33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1000</v>
       </c>
       <c r="O33" s="3">
         <v>-1000</v>
       </c>
       <c r="P33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,65 +2544,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2800</v>
       </c>
       <c r="H35" s="3">
         <v>-2800</v>
       </c>
       <c r="I35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1000</v>
       </c>
       <c r="O35" s="3">
         <v>-1000</v>
       </c>
       <c r="P35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2747,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2723,37 +2810,40 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E42" s="3">
         <v>15000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>11000</v>
       </c>
       <c r="I42" s="3">
         <v>11000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+      <c r="J42" s="3">
+        <v>11000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2770,8 +2860,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2797,26 +2887,29 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2824,28 +2917,28 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2874,47 +2970,47 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2933,22 +3029,25 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -2957,16 +3056,16 @@
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2978,79 +3077,82 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E46" s="3">
         <v>25900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3063,14 +3165,17 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,35 +3183,35 @@
         <v>1400</v>
       </c>
       <c r="E47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1600</v>
       </c>
       <c r="G47" s="3">
         <v>1600</v>
       </c>
       <c r="H47" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I47" s="3">
         <v>1700</v>
       </c>
       <c r="J47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3119,8 +3224,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,56 +3242,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
       </c>
       <c r="I48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,7 +3547,7 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3445,7 +3565,7 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3456,8 +3576,8 @@
       <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>300</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3668,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E54" s="3">
         <v>28500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3607,14 +3733,17 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,49 +3795,50 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3727,14 +3858,17 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3775,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
@@ -3790,67 +3924,70 @@
         <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E59" s="3">
         <v>2300</v>
       </c>
       <c r="F59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
       </c>
       <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3866,16 +4003,19 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E60" s="3">
         <v>2600</v>
@@ -3884,43 +4024,43 @@
         <v>2600</v>
       </c>
       <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
@@ -3929,16 +4069,19 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,46 +4148,49 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1900</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
       </c>
       <c r="L62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -4052,8 +4198,8 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>300</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,58 +4432,61 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="E66" s="3">
         <v>5100</v>
       </c>
       <c r="F66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G66" s="3">
         <v>5300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5600</v>
       </c>
       <c r="H66" s="3">
         <v>5600</v>
       </c>
       <c r="I66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -4337,16 +4495,19 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,61 +4814,64 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-300</v>
       </c>
       <c r="S72" s="3">
         <v>-300</v>
       </c>
       <c r="T72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U72" s="3">
         <v>-200</v>
@@ -4705,14 +4879,17 @@
       <c r="V72" s="3">
         <v>-200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="W72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
         <v>23400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,138 +5240,144 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2800</v>
       </c>
       <c r="H81" s="3">
         <v>-2800</v>
       </c>
       <c r="I81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1000</v>
       </c>
       <c r="O81" s="3">
         <v>-1000</v>
       </c>
       <c r="P81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,16 +5416,17 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5242,7 +5441,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5265,8 +5464,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1100</v>
       </c>
       <c r="P89" s="3">
         <v>-1100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5741,25 +5962,25 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5776,8 +5997,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,40 +6151,43 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-11100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5966,14 +6196,14 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,17 +6533,20 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>14000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6311,35 +6557,35 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6347,19 +6593,22 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6373,17 +6622,17 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6400,11 +6649,11 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6417,8 +6666,8 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6426,56 +6675,59 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6485,13 +6737,16 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>SCTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -813,11 +817,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
@@ -836,59 +840,62 @@
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,40 +914,43 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-200</v>
       </c>
       <c r="K10" s="3">
         <v>-200</v>
       </c>
       <c r="L10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-200</v>
       </c>
       <c r="N10" s="3">
         <v>-200</v>
@@ -952,14 +962,14 @@
         <v>-200</v>
       </c>
       <c r="Q10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,10 +1031,10 @@
         <v>1400</v>
       </c>
       <c r="F12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G12" s="3">
         <v>1200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -1029,34 +1043,34 @@
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="S12" s="3">
+        <v>300</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,68 +1339,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1600</v>
       </c>
       <c r="N17" s="3">
         <v>1600</v>
       </c>
       <c r="O17" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="P17" s="3">
         <v>1000</v>
       </c>
       <c r="Q17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1384,59 +1411,62 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2800</v>
       </c>
       <c r="J18" s="3">
         <v>-2800</v>
       </c>
       <c r="K18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1000</v>
       </c>
       <c r="P18" s="3">
         <v>-1000</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,16 +1515,17 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1500,17 +1534,17 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1527,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1553,25 +1587,28 @@
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2700</v>
       </c>
       <c r="I21" s="3">
         <v>-2700</v>
@@ -1580,32 +1617,32 @@
         <v>-2700</v>
       </c>
       <c r="K21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1000</v>
       </c>
       <c r="P21" s="3">
         <v>-1000</v>
       </c>
       <c r="Q21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,8 +1693,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1674,8 +1714,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1695,68 +1735,71 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2800</v>
       </c>
       <c r="I23" s="3">
         <v>-2800</v>
       </c>
       <c r="J23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1000</v>
       </c>
       <c r="P23" s="3">
         <v>-1000</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1766,8 +1809,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1777,11 +1823,11 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1789,35 +1835,35 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,68 +1957,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2800</v>
       </c>
       <c r="I26" s="3">
         <v>-2800</v>
       </c>
       <c r="J26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1000</v>
       </c>
       <c r="P26" s="3">
         <v>-1000</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -1979,68 +2031,71 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2800</v>
       </c>
       <c r="I27" s="3">
         <v>-2800</v>
       </c>
       <c r="J27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1000</v>
       </c>
       <c r="P27" s="3">
         <v>-1000</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,16 +2401,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2352,17 +2422,17 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2379,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2405,68 +2475,71 @@
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2800</v>
       </c>
       <c r="I33" s="3">
         <v>-2800</v>
       </c>
       <c r="J33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1000</v>
       </c>
       <c r="P33" s="3">
         <v>-1000</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2476,8 +2549,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,68 +2623,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2800</v>
       </c>
       <c r="I35" s="3">
         <v>-2800</v>
       </c>
       <c r="J35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1000</v>
       </c>
       <c r="P35" s="3">
         <v>-1000</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2618,84 +2697,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,59 +2834,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2813,40 +2900,43 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E42" s="3">
         <v>18700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>11000</v>
       </c>
       <c r="J42" s="3">
         <v>11000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>11000</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2953,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2890,29 +2980,32 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2920,28 +3013,28 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2961,59 +3054,62 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
       </c>
       <c r="F44" s="3">
+        <v>700</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,25 +3128,28 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
@@ -3059,16 +3158,16 @@
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -3080,82 +3179,85 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E46" s="3">
         <v>23600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -3168,53 +3270,56 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
         <v>1400</v>
       </c>
       <c r="F47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G47" s="3">
         <v>1500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1600</v>
       </c>
       <c r="H47" s="3">
         <v>1600</v>
       </c>
       <c r="I47" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J47" s="3">
         <v>1700</v>
       </c>
       <c r="K47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3227,8 +3332,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3245,59 +3350,62 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1200</v>
       </c>
       <c r="J48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
       </c>
       <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3550,7 +3670,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -3568,7 +3688,7 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3579,8 +3699,8 @@
       <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>300</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,59 +3794,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E54" s="3">
         <v>26400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3736,14 +3862,17 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,52 +3926,53 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3861,14 +3992,17 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3912,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3927,70 +4061,73 @@
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2300</v>
       </c>
       <c r="F59" s="3">
         <v>2300</v>
       </c>
       <c r="G59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
       </c>
       <c r="Q59" s="3">
         <v>1200</v>
       </c>
       <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4006,19 +4143,22 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2600</v>
       </c>
       <c r="F60" s="3">
         <v>2600</v>
@@ -4027,43 +4167,43 @@
         <v>2600</v>
       </c>
       <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -4072,16 +4212,19 @@
         <v>200</v>
       </c>
       <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,49 +4294,52 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1900</v>
       </c>
       <c r="L62" s="3">
         <v>1900</v>
       </c>
       <c r="M62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>300</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -4201,8 +4347,8 @@
       <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>300</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,61 +4590,64 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5100</v>
       </c>
       <c r="F66" s="3">
         <v>5100</v>
       </c>
       <c r="G66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H66" s="3">
         <v>5300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5600</v>
       </c>
       <c r="I66" s="3">
         <v>5600</v>
       </c>
       <c r="J66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4498,16 +4656,19 @@
         <v>200</v>
       </c>
       <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
         <v>100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,64 +4988,67 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-300</v>
       </c>
       <c r="T72" s="3">
         <v>-300</v>
       </c>
       <c r="U72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V72" s="3">
         <v>-200</v>
@@ -4882,14 +5056,17 @@
       <c r="W72" s="3">
         <v>-200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="X72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,144 +5432,150 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2800</v>
       </c>
       <c r="I81" s="3">
         <v>-2800</v>
       </c>
       <c r="J81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1000</v>
       </c>
       <c r="P81" s="3">
         <v>-1000</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5585,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5444,7 +5643,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5467,8 +5666,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q89" s="3">
         <v>-1100</v>
       </c>
       <c r="R89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5965,25 +6186,25 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -6000,8 +6221,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,43 +6381,46 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6199,14 +6429,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,11 +6791,11 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>14000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6560,35 +6806,35 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6596,19 +6842,22 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6625,17 +6874,17 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6652,11 +6901,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6669,8 +6918,8 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6678,59 +6927,62 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6740,13 +6992,16 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
